--- a/results/I3_N5_M2_T30_C100_DepCentral_s1_P1_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s1_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2382.005728880675</v>
+        <v>1829.6683056416</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.19570705323225</v>
+        <v>22.6154668145174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.85427248955245</v>
+        <v>13.6761004968628</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.914294316987418</v>
+        <v>4.728939323944863</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1973.170000000008</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>387.58</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.788310969284332</v>
+        <v>24.4838942084626</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.60181147454999</v>
+        <v>26.08570568301258</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.510903778477015</v>
+        <v>13.75054662682655</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.48909622152298</v>
+        <v>16.23964284834953</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.2093610446023</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.69536195791427</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1074,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1102,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1116,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1130,12 +1130,110 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>243.55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>235.2200000000003</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>228.2400000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>235.7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>235.9149999999991</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>40.77499999999971</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.87999999999971</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>37.77499999999971</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>41.01499999999971</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>41.88499999999971</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>121.8299999999988</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>117.98</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>105.775</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>117.255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>119.6049999999988</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>63.13500000000051</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>60.36500000000051</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>61.40500000000051</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.17500000000051</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>62.26000000000051</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>164.8600000000009</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>156.4850000000009</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.6700000000009</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>161.1200000000009</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>165.8250000000009</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>164.8600000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>156.4850000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>159.6700000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>161.1200000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>165.8250000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>243.55</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>235.2200000000003</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1688,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>228.2400000000003</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>235.7</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1710,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>235.9149999999991</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>64.86000000000089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>56.48500000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>59.67000000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>61.12000000000086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>65.8250000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>143.55</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>135.2200000000003</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>128.2400000000003</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>135.7</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>135.9149999999991</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1914,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>10.41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1936,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +2024,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +2057,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.755</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>15.325</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>18.795</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +2112,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.305</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +2145,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,7 +2208,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,7 +2219,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2132,7 +2230,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2143,7 +2241,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2154,7 +2252,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2220,10 +2318,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2231,10 +2329,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2245,7 +2343,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2256,7 +2354,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2267,9 +2365,31 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
